--- a/kassenbuch.xlsx
+++ b/kassenbuch.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macbookpro/Documents/GitHub/Schuldenliste/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CAD243D-58AD-A64D-B07A-ABF790499F23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F345726-29BA-CA4D-ADBF-A67A5ABC5E62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -121,7 +121,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -172,6 +172,17 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="14"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -381,7 +392,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -442,9 +453,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -469,15 +477,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -487,9 +486,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -498,9 +494,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -531,6 +524,30 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -839,13 +856,13 @@
   <dimension ref="A1:I58"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="5" width="19" style="23" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="23"/>
+    <col min="1" max="5" width="19" style="22" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="22"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.15">
@@ -853,17 +870,17 @@
       <c r="B1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="19"/>
+      <c r="C1" s="50"/>
       <c r="D1" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="21"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
     </row>
     <row r="2" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -883,382 +900,382 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="3" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="24"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
+      <c r="A3" s="23"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
     </row>
     <row r="4" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="4"/>
       <c r="B4" s="5"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="26"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="25"/>
     </row>
     <row r="5" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="28"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="30"/>
+      <c r="B5" s="27"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="45"/>
     </row>
     <row r="6" spans="1:9" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="31" t="s">
+      <c r="A6" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="32"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="34"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="30"/>
     </row>
     <row r="7" spans="1:9" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="35"/>
-      <c r="B7" s="36"/>
-      <c r="C7" s="36"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="38"/>
+      <c r="A7" s="48"/>
+      <c r="B7" s="31"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="33"/>
     </row>
     <row r="8" spans="1:9" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="35"/>
-      <c r="B8" s="36"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="38"/>
+      <c r="A8" s="48"/>
+      <c r="B8" s="31"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="33"/>
     </row>
     <row r="9" spans="1:9" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="39"/>
-      <c r="B9" s="40"/>
-      <c r="C9" s="40"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="42"/>
+      <c r="A9" s="49"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="36"/>
     </row>
     <row r="10" spans="1:9" ht="3" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="24"/>
-      <c r="B10" s="25"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
+      <c r="A10" s="23"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
     </row>
     <row r="11" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="4"/>
       <c r="B11" s="5"/>
-      <c r="C11" s="43"/>
-      <c r="D11" s="44"/>
-      <c r="E11" s="43"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="37"/>
     </row>
     <row r="12" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="28"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="30"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="45"/>
     </row>
     <row r="13" spans="1:9" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="31" t="s">
+      <c r="A13" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="32"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="34"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="30"/>
     </row>
     <row r="14" spans="1:9" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="35"/>
-      <c r="B14" s="36"/>
-      <c r="C14" s="36"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="38"/>
+      <c r="A14" s="48"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="33"/>
     </row>
     <row r="15" spans="1:9" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="35"/>
-      <c r="B15" s="36"/>
-      <c r="C15" s="36"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="38"/>
+      <c r="A15" s="48"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="33"/>
     </row>
     <row r="16" spans="1:9" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="39"/>
-      <c r="B16" s="40"/>
-      <c r="C16" s="40"/>
-      <c r="D16" s="41"/>
-      <c r="E16" s="42"/>
+      <c r="A16" s="49"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="36"/>
     </row>
     <row r="17" spans="1:5" ht="3" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="24"/>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
+      <c r="A17" s="23"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
     </row>
     <row r="18" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="4"/>
       <c r="B18" s="5"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="26"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="25"/>
     </row>
     <row r="19" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B19" s="28"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="29"/>
-      <c r="E19" s="30"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="44"/>
+      <c r="D19" s="44"/>
+      <c r="E19" s="45"/>
     </row>
     <row r="20" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="31" t="s">
+      <c r="A20" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B20" s="32"/>
-      <c r="C20" s="32"/>
-      <c r="D20" s="33"/>
-      <c r="E20" s="34"/>
+      <c r="B20" s="28"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="30"/>
     </row>
     <row r="21" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="35"/>
-      <c r="B21" s="36"/>
-      <c r="C21" s="36"/>
-      <c r="D21" s="37"/>
-      <c r="E21" s="38"/>
+      <c r="A21" s="48"/>
+      <c r="B21" s="31"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="33"/>
     </row>
     <row r="22" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="35"/>
-      <c r="B22" s="36"/>
-      <c r="C22" s="36"/>
-      <c r="D22" s="37"/>
-      <c r="E22" s="38"/>
+      <c r="A22" s="48"/>
+      <c r="B22" s="31"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="33"/>
     </row>
     <row r="23" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="39"/>
-      <c r="B23" s="40"/>
-      <c r="C23" s="40"/>
-      <c r="D23" s="41"/>
-      <c r="E23" s="42"/>
+      <c r="A23" s="49"/>
+      <c r="B23" s="34"/>
+      <c r="C23" s="34"/>
+      <c r="D23" s="35"/>
+      <c r="E23" s="36"/>
     </row>
     <row r="24" spans="1:5" ht="3" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="24"/>
-      <c r="B24" s="25"/>
-      <c r="C24" s="25"/>
-      <c r="D24" s="25"/>
-      <c r="E24" s="25"/>
+      <c r="A24" s="23"/>
+      <c r="B24" s="24"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="24"/>
     </row>
     <row r="25" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="4"/>
       <c r="B25" s="5"/>
-      <c r="C25" s="43"/>
-      <c r="D25" s="44"/>
-      <c r="E25" s="43"/>
+      <c r="C25" s="37"/>
+      <c r="D25" s="38"/>
+      <c r="E25" s="37"/>
     </row>
     <row r="26" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B26" s="28"/>
-      <c r="C26" s="29"/>
-      <c r="D26" s="29"/>
-      <c r="E26" s="30"/>
+      <c r="B26" s="27"/>
+      <c r="C26" s="44"/>
+      <c r="D26" s="44"/>
+      <c r="E26" s="45"/>
     </row>
     <row r="27" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="31" t="s">
+      <c r="A27" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B27" s="32"/>
-      <c r="C27" s="32"/>
-      <c r="D27" s="33"/>
-      <c r="E27" s="34"/>
+      <c r="B27" s="28"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="30"/>
     </row>
     <row r="28" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="35"/>
-      <c r="B28" s="36"/>
-      <c r="C28" s="36"/>
-      <c r="D28" s="37"/>
-      <c r="E28" s="38"/>
+      <c r="A28" s="48"/>
+      <c r="B28" s="31"/>
+      <c r="C28" s="31"/>
+      <c r="D28" s="32"/>
+      <c r="E28" s="33"/>
     </row>
     <row r="29" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="35"/>
-      <c r="B29" s="36"/>
-      <c r="C29" s="36"/>
-      <c r="D29" s="37"/>
-      <c r="E29" s="38"/>
+      <c r="A29" s="48"/>
+      <c r="B29" s="31"/>
+      <c r="C29" s="31"/>
+      <c r="D29" s="32"/>
+      <c r="E29" s="33"/>
     </row>
     <row r="30" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="39"/>
-      <c r="B30" s="40"/>
-      <c r="C30" s="40"/>
-      <c r="D30" s="41"/>
-      <c r="E30" s="42"/>
+      <c r="A30" s="49"/>
+      <c r="B30" s="34"/>
+      <c r="C30" s="34"/>
+      <c r="D30" s="35"/>
+      <c r="E30" s="36"/>
     </row>
     <row r="31" spans="1:5" ht="3" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="24"/>
-      <c r="B31" s="25"/>
-      <c r="C31" s="25"/>
-      <c r="D31" s="25"/>
-      <c r="E31" s="25"/>
+      <c r="A31" s="23"/>
+      <c r="B31" s="24"/>
+      <c r="C31" s="24"/>
+      <c r="D31" s="24"/>
+      <c r="E31" s="24"/>
     </row>
     <row r="32" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="4"/>
       <c r="B32" s="5"/>
-      <c r="C32" s="43"/>
-      <c r="D32" s="44"/>
-      <c r="E32" s="43"/>
+      <c r="C32" s="37"/>
+      <c r="D32" s="38"/>
+      <c r="E32" s="37"/>
     </row>
     <row r="33" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B33" s="28"/>
-      <c r="C33" s="29"/>
-      <c r="D33" s="29"/>
-      <c r="E33" s="30"/>
+      <c r="B33" s="27"/>
+      <c r="C33" s="44"/>
+      <c r="D33" s="44"/>
+      <c r="E33" s="45"/>
     </row>
     <row r="34" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="31" t="s">
+      <c r="A34" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B34" s="32"/>
-      <c r="C34" s="32"/>
-      <c r="D34" s="33"/>
-      <c r="E34" s="34"/>
+      <c r="B34" s="28"/>
+      <c r="C34" s="28"/>
+      <c r="D34" s="29"/>
+      <c r="E34" s="30"/>
     </row>
     <row r="35" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="35"/>
-      <c r="B35" s="36"/>
-      <c r="C35" s="36"/>
-      <c r="D35" s="37"/>
-      <c r="E35" s="38"/>
+      <c r="A35" s="48"/>
+      <c r="B35" s="31"/>
+      <c r="C35" s="31"/>
+      <c r="D35" s="32"/>
+      <c r="E35" s="33"/>
     </row>
     <row r="36" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="35"/>
-      <c r="B36" s="36"/>
-      <c r="C36" s="36"/>
-      <c r="D36" s="37"/>
-      <c r="E36" s="38"/>
+      <c r="A36" s="48"/>
+      <c r="B36" s="31"/>
+      <c r="C36" s="31"/>
+      <c r="D36" s="32"/>
+      <c r="E36" s="33"/>
     </row>
     <row r="37" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="39"/>
-      <c r="B37" s="40"/>
-      <c r="C37" s="40"/>
-      <c r="D37" s="41"/>
-      <c r="E37" s="42"/>
+      <c r="A37" s="49"/>
+      <c r="B37" s="34"/>
+      <c r="C37" s="34"/>
+      <c r="D37" s="35"/>
+      <c r="E37" s="36"/>
     </row>
     <row r="38" spans="1:5" ht="3" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="24"/>
-      <c r="B38" s="25"/>
-      <c r="C38" s="25"/>
-      <c r="D38" s="25"/>
-      <c r="E38" s="25"/>
+      <c r="A38" s="23"/>
+      <c r="B38" s="24"/>
+      <c r="C38" s="24"/>
+      <c r="D38" s="24"/>
+      <c r="E38" s="24"/>
     </row>
     <row r="39" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="4"/>
       <c r="B39" s="5"/>
-      <c r="C39" s="43"/>
-      <c r="D39" s="44"/>
-      <c r="E39" s="43"/>
+      <c r="C39" s="37"/>
+      <c r="D39" s="38"/>
+      <c r="E39" s="37"/>
     </row>
     <row r="40" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B40" s="28"/>
-      <c r="C40" s="29"/>
-      <c r="D40" s="29"/>
-      <c r="E40" s="30"/>
+      <c r="B40" s="46"/>
+      <c r="C40" s="44"/>
+      <c r="D40" s="44"/>
+      <c r="E40" s="45"/>
     </row>
     <row r="41" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="31" t="s">
+      <c r="A41" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B41" s="32"/>
-      <c r="C41" s="32"/>
-      <c r="D41" s="33"/>
-      <c r="E41" s="34"/>
+      <c r="B41" s="29"/>
+      <c r="C41" s="30"/>
+      <c r="D41" s="29"/>
+      <c r="E41" s="30"/>
     </row>
     <row r="42" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="35"/>
-      <c r="B42" s="36"/>
-      <c r="C42" s="36"/>
-      <c r="D42" s="37"/>
-      <c r="E42" s="38"/>
+      <c r="A42" s="48"/>
+      <c r="B42" s="32"/>
+      <c r="C42" s="33"/>
+      <c r="D42" s="32"/>
+      <c r="E42" s="33"/>
     </row>
     <row r="43" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="35"/>
-      <c r="B43" s="36"/>
-      <c r="C43" s="36"/>
-      <c r="D43" s="37"/>
-      <c r="E43" s="38"/>
+      <c r="A43" s="48"/>
+      <c r="B43" s="32"/>
+      <c r="C43" s="33"/>
+      <c r="D43" s="32"/>
+      <c r="E43" s="33"/>
     </row>
     <row r="44" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="39"/>
-      <c r="B44" s="40"/>
-      <c r="C44" s="40"/>
-      <c r="D44" s="41"/>
-      <c r="E44" s="42"/>
+      <c r="A44" s="49"/>
+      <c r="B44" s="35"/>
+      <c r="C44" s="36"/>
+      <c r="D44" s="35"/>
+      <c r="E44" s="36"/>
     </row>
     <row r="45" spans="1:5" ht="3" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="24"/>
-      <c r="B45" s="25"/>
-      <c r="C45" s="25"/>
-      <c r="D45" s="25"/>
-      <c r="E45" s="45"/>
+      <c r="A45" s="23"/>
+      <c r="B45" s="24"/>
+      <c r="C45" s="24"/>
+      <c r="D45" s="24"/>
+      <c r="E45" s="39"/>
     </row>
     <row r="46" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="4"/>
       <c r="B46" s="5"/>
-      <c r="C46" s="43"/>
-      <c r="D46" s="44"/>
-      <c r="E46" s="43"/>
+      <c r="C46" s="37"/>
+      <c r="D46" s="38"/>
+      <c r="E46" s="37"/>
     </row>
     <row r="47" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B47" s="28"/>
-      <c r="C47" s="29"/>
-      <c r="D47" s="29"/>
-      <c r="E47" s="30"/>
+      <c r="B47" s="27"/>
+      <c r="C47" s="44"/>
+      <c r="D47" s="44"/>
+      <c r="E47" s="45"/>
     </row>
     <row r="48" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="31" t="s">
+      <c r="A48" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B48" s="32"/>
-      <c r="C48" s="32"/>
-      <c r="D48" s="33"/>
-      <c r="E48" s="34"/>
+      <c r="B48" s="28"/>
+      <c r="C48" s="28"/>
+      <c r="D48" s="29"/>
+      <c r="E48" s="30"/>
     </row>
     <row r="49" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="35"/>
-      <c r="B49" s="36"/>
-      <c r="C49" s="36"/>
-      <c r="D49" s="37"/>
-      <c r="E49" s="38"/>
+      <c r="A49" s="48"/>
+      <c r="B49" s="31"/>
+      <c r="C49" s="31"/>
+      <c r="D49" s="32"/>
+      <c r="E49" s="33"/>
     </row>
     <row r="50" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="35"/>
-      <c r="B50" s="36"/>
-      <c r="C50" s="36"/>
-      <c r="D50" s="37"/>
-      <c r="E50" s="38"/>
+      <c r="A50" s="48"/>
+      <c r="B50" s="31"/>
+      <c r="C50" s="31"/>
+      <c r="D50" s="32"/>
+      <c r="E50" s="33"/>
     </row>
     <row r="51" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="39"/>
-      <c r="B51" s="40"/>
-      <c r="C51" s="40"/>
-      <c r="D51" s="41"/>
-      <c r="E51" s="42"/>
+      <c r="A51" s="49"/>
+      <c r="B51" s="34"/>
+      <c r="C51" s="34"/>
+      <c r="D51" s="35"/>
+      <c r="E51" s="36"/>
     </row>
     <row r="52" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="13" t="s">
         <v>15</v>
       </c>
       <c r="B52" s="13"/>
-      <c r="E52" s="46"/>
+      <c r="E52" s="40"/>
     </row>
     <row r="53" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="16" t="s">
@@ -1267,37 +1284,37 @@
       <c r="B53" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C53" s="46"/>
-      <c r="D53" s="46"/>
-      <c r="E53" s="47"/>
+      <c r="C53" s="40"/>
+      <c r="D53" s="40"/>
+      <c r="E53" s="41"/>
     </row>
     <row r="54" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="17"/>
       <c r="B54" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E54" s="48"/>
+      <c r="E54" s="42"/>
     </row>
     <row r="55" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="17"/>
       <c r="B55" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E55" s="48"/>
+      <c r="E55" s="42"/>
     </row>
     <row r="56" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="17"/>
       <c r="B56" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E56" s="48"/>
+      <c r="E56" s="42"/>
     </row>
     <row r="57" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="18"/>
       <c r="B57" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E57" s="49"/>
+      <c r="E57" s="43"/>
     </row>
     <row r="58" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="14" t="s">
@@ -1310,12 +1327,15 @@
       <c r="D58" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E58" s="26"/>
+      <c r="E58" s="25"/>
     </row>
   </sheetData>
-  <mergeCells count="73">
+  <mergeCells count="80">
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="D9:E9"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C19:E19"/>
     <mergeCell ref="A58:B58"/>
     <mergeCell ref="D23:E23"/>
     <mergeCell ref="D29:E29"/>
@@ -1327,6 +1347,8 @@
     <mergeCell ref="D30:E30"/>
     <mergeCell ref="A33:B33"/>
     <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="C33:E33"/>
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="A12:B12"/>
@@ -1345,6 +1367,8 @@
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="A47:B47"/>
     <mergeCell ref="B21:C21"/>
+    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="C47:E47"/>
     <mergeCell ref="A34:A37"/>
     <mergeCell ref="B34:C34"/>
     <mergeCell ref="D34:E34"/>
